--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/16_Bilecik_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/16_Bilecik_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{825A2815-C50E-48C4-B258-665E2D185D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C11C46F-1A10-4D43-BEE3-1682E923786A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{A753D79D-4A52-450D-AE38-E24614C9BF2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{B06A4072-5C79-4038-941D-FB94F143067C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -959,15 +959,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C1C082B1-6E8F-436D-AB59-77A1D12FCEEE}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6A2B1489-0771-4FB2-AA1A-1A1C7825F845}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{5E2B2D53-B93B-4210-B552-EA430774DCBD}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{5F9F3579-B0EC-4D35-8648-DD9E60DC9A4B}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{8978293E-5BC1-418A-975C-7B6F9DE54229}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{3C7EEF6D-771D-42F7-8E9D-8BB1B11B4E51}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{FBF20954-0954-447C-A85C-8D5DEE0128DA}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{DD7F8068-8107-40C1-98E1-719582CE92B1}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{90944F8D-57E5-41B3-B7CD-DF1F39F45822}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{E053FBD0-581D-4343-A43D-D76786CCE0B3}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F17C0B3F-4B7A-4505-99D9-2807D66DBC17}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B37E2088-28DF-4653-9681-4532902C8EAB}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{7101A522-8028-4801-8036-B442278EAB17}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{22FC7F61-03FE-4DD3-9BC4-22F59350C02D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{E3F61913-0037-4D87-A031-76EA5C6DA105}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{28F271F4-FBEC-4112-969B-ECE732E103B9}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{9EBC6D1C-AAE6-4F9C-9E2C-F39BA4A2D230}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{FE9C8767-54C6-477B-860F-04FA1C33D2BE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1337,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278672E3-1C65-4A46-A17B-39875680022E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A831F4FA-9ACB-4C3A-8406-959B5B64B50C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2570,18 +2570,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA4DDA16-720B-4239-9103-36D4C58400B9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B06CA405-AB3C-41EE-B3FA-726B9A3A7795}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{39ECDD68-62A5-49E7-8A0F-49F1825A29EF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{286E256E-1E1A-4E94-86FA-C4951A754120}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{52352AB2-C8B0-48BB-9EB6-C93CB6C19DC8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8279026E-6815-4931-8054-5FAF4A97F679}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E8133A9E-FEE4-4486-AFD2-070D07B9A80F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D00A8245-3B55-422D-B047-82E18B485C21}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F7A3ADE-8982-476E-A039-078101957F98}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FFC755C4-1E20-4436-BA73-2CF181826CD3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C256B56-AB27-4C95-92C8-0FC851C35872}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA05D44F-3985-4EE3-AD4C-1CC593B9110B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6236BCD-059F-4C65-9651-868CDE9DB737}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{041A158F-1F86-4506-81A7-0503B3E3A976}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{13C3D874-B842-41F6-B7CF-7C8D89B51079}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FADD19A7-BACA-4FE5-8E07-2DB5217DCF76}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B4EC1AD-3C48-4FEC-966F-5954BF19FBB6}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0AD768D7-0504-48EE-A2C8-9138693ABF04}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B24B2550-B43D-4F5B-AAC6-F58C1583595D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E7ADE56-70CC-43CF-8968-6A79F358994E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3A211A59-9369-4699-9BBF-39D0A9E20594}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BEECF40E-3646-4B37-A82D-90FE06DFAC7C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E64B10B9-1A83-4A90-A027-0223D46CFFE2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7D1AC956-17B4-4A96-A3B6-F96C4D77485E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2594,7 +2594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C428A19-0261-4B16-95CF-209F21A88E83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D29A6DB-D07A-4365-9FEC-CCD7DF9478F2}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3816,18 +3816,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE99F19C-AC3B-4F1B-B917-8F8506BFC886}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{05AFCB48-88EE-4495-8092-1DC1D6CC4D26}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1DDB1B52-ACC6-47A0-81F5-C52DD9929341}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C27A687-2A2C-4D2D-BA15-9A38A87A0B3C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{07BD874D-C620-4BF5-BEF0-982D625A1B3D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5DE3D8C9-5EAB-4DBD-821F-C9F019AA1150}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{215C7C22-7416-46B0-9EB3-3F552518E56D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A967293D-05F8-400E-8A53-5DE9930CB41C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{906C0B25-D4E4-484B-ACA4-A66AD95D446D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{163C61C1-FAE0-4FFA-97CC-44B148743060}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D818CD0-7301-483B-BBEF-5C14A17FEC96}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04A29664-64CE-486F-AC41-E1B45E51BE24}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1FFE9EE2-4872-4354-B342-762D138B8AF4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F00A921-F52A-414F-AEE8-5151594751E5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B745F990-8B92-4979-AF29-6F9BF2D1B7F3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5D91FEF7-488A-4508-B05A-988528053A7E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{775FA250-E6EC-4AD3-879C-1CACB51FC614}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{59ECBD1C-CF65-4774-AD24-632AEE7A5B94}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{903EA91D-DB6D-4C88-89C7-B96CAE368C4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45443441-D095-4528-A851-1F29AE060CFD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F03D91A6-21E0-4FBD-B530-6018AD08968D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{08D10A71-A517-414F-B6B7-D8C8E6543570}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2778E0E8-0597-48FC-B041-7B776BE7451F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{69D7A09C-F2B8-440E-A880-2CB42F91FA29}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3840,7 +3840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7353F0E0-F5BE-4A4B-B515-E5D1A0193606}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E083F7-34B4-4AFA-AE2B-CF9DC2743F89}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5056,18 +5056,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5F832FF8-75C5-4D7B-99C3-96A8B7D443B7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{43165AE5-5CC2-4819-A93E-AF2A2486380F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A3F46F1A-D1CD-4158-B769-4F3DC885FBF9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1126ED02-EE73-4994-ADC3-5C504E4EC802}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{733BD3FC-740E-43C9-9E05-A10A20554E9A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4D21743A-4F78-488D-86DC-2BB181359DCC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B2DA5B93-38CC-4359-8776-A2E73ACFCF3F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6D863E37-6D32-4E2D-80F5-124EA183661C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33984254-3B4B-40AB-A453-6CDFBA66EFB5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6C74797F-03B4-4E16-92A5-73CE9D0A16B9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0B3D732F-AB4D-4D24-9F26-EFC55720015F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BFEE8FEE-0F11-46C0-BCEF-3722684CE429}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5BE4BF93-CE61-4CD8-902E-9343327D2C55}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E2A8DC7-9DA5-4A40-8CD2-AA959B9EF550}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7BED82F5-1184-4ED9-81ED-6AF70EE8AC82}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0BC34D22-8AE0-4E9A-85AD-EC9111D02EAA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86105DB8-4C07-4A11-A93B-29FC08867376}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1DCCAF3F-39C0-40A3-AB3F-0E693FC92EE3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{226DF97A-B846-4D32-A172-CB761231B146}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{493FE80C-008A-4D0B-938D-ABBB329DB8EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{066CCCE0-91EC-4D2A-9771-3A10EA6FA234}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9A2B4654-4EFD-42F0-BEB0-43E866021DD9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0EA44390-56D6-4A58-B363-CAC47AC91AFC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{064CEDB8-F2FB-444F-99A3-B7489164BBD4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5080,7 +5080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A642D816-7E77-4F8A-81E3-B814B859C2F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EC90EE-0DCF-443E-8D82-C4CC0878F0E3}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6296,18 +6296,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{08CABC57-EC0D-4716-ADDE-196FF39D322B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DDCE0E70-6255-4602-93C7-2620A66B7CA6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{193F9B60-9D84-4612-BF72-D222BDFB2A68}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D446B16F-0668-491B-85AB-6E688C937194}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{81E67128-F20C-4B1C-B41B-96F1ADDE8930}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{296EF3F2-4BFA-49AD-A72F-F4F469D4BA70}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3651DA52-C6DB-484F-A97D-F0E7357019EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D4F6C0B-F64F-4290-830A-1533FEFCD714}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{09BF54E2-E865-4A39-9B16-5EC41E6F395C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B145344D-C13E-4BAC-9C85-E32D384DA07A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8703C3CB-0FA3-4FD0-8EE1-5D0431654553}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92A55509-9960-449B-9E67-6BD7F94CA9DE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB91E57F-5229-4CE2-B9EA-D27D7F01245B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{127A45F0-34BE-4180-A7F8-E81759B66BC4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E1D445FC-70EF-48E3-92A2-5B35D492C62F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D08816DD-F9FA-4ACA-98F9-728AE490AA3E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A86CE1B6-BF5C-473B-BAC6-4AFF76B3D6DE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9D4E26B2-AF9B-41D3-9F89-207788534EB0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C8FEDC0-AC0A-4D38-BD47-5F6AB7FC4BF3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3F82AC3-6F81-4F70-A7A5-E3BA3E1F70A6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A0D2E717-3ADD-4B55-9FB2-EF8415A3FFAA}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E4AFCED1-9057-4DF2-8161-E54FB637C83E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A441456C-1027-42B0-B7EA-64B5B47E0799}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC4A0BA0-9ED5-4CFB-A7E0-B6687E2CEFDA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6320,7 +6320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5886107F-3886-4BBD-A55D-92F34935C6B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D0771C-0D23-4D2D-949C-53CDA9728783}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7555,18 +7555,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0D8EBE2D-7911-4DF0-B2AB-BE0E5DC066AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{90DEAE0A-EE76-44FB-8053-48A66836554E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{118BCF2E-83B2-4B87-B9E1-6C846BB39A80}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4BCE6F83-12A4-4265-B005-ED901DFFDBB5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A9AE0C10-7366-4A0C-AD7C-200CCDF4F2C2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{880F4A95-5154-4649-B7F7-3AF2BE872AF0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93527668-2C6F-4B78-8BC7-E2CEB4E9321F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2AD07C3-B1F2-4832-B6A2-24B69CDF7CF7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6073250B-636B-4458-8FC1-08FA1165680D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{01FF39DD-B01B-4FA5-A756-DDC98798A9D8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8DADD97-DE99-431B-82E7-FD79DA49C85A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8E531EBF-5757-45D4-85BF-8FE7D53EF41F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B72A90D-BC2E-44FA-B84B-6C7C323FD0C0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6CB8F920-F33D-4795-A30C-8DCDEABF02B8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{93F465C5-8A54-405A-9A92-2CAF50145940}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{88CC0C53-F846-42FD-B2F9-2576B842CAD6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8EE49AF0-88AD-4F12-8BEB-5EC1EA195A0A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{50C393C4-4DB6-4EF6-983C-FFE8CC68158A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D0C76C0-81D9-4055-9756-A1AC050CBD94}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C36B7251-D052-4ADA-AD07-A2D353291D96}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{781BDDD3-7623-4C3D-B183-25B197BEF307}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F021D206-FD53-4265-8284-E307B5CC811F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{50F19868-5ED9-41EE-B038-64FC3D4704C6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15C7D34C-C569-4A4B-99C0-C1BB0EA56427}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7579,7 +7579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7732EF9-5857-4B48-AB8B-E857EEB50031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FF129B-FFAB-4D4E-A797-C4AE1A6496E0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8814,18 +8814,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A4662D8D-313D-4089-A8D1-9AE152423E84}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B109763E-27BD-4638-B448-C6ADD1405DAA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0DC15D57-8D83-4B36-8018-F8A4E5DEAEA8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C7128836-4158-476C-AFDB-DD2E34A3BD18}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FF22A0D7-8A28-4C10-88DF-32A9F2B00699}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F02D83BF-5D46-402E-84D2-5AB5DA2B0804}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4087579-F89C-43B6-A70B-438B426B00D1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B65D029D-A291-44C1-8845-FE4480CB9007}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1813781A-BB5D-45A8-8214-79BEB45CF82B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{342DC867-3DC7-4460-8AB8-DF6CC9307690}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A8D8421-804E-4488-BCD4-8F720DA0F1F4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67E6302F-7E29-413C-8709-735068C784A2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18EA7900-74FE-467D-B9DA-CEAB699C91F6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E10B4370-F66D-466C-A2FE-162BB9BE0E40}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CA474194-04AA-4361-96C2-2EE5BF12B78B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8D84322B-B202-49BD-A72A-4ACDD1099122}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0ACAD1CE-C935-4F98-A1D7-975E732DAAD3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{93B2137C-4066-4E2F-85C3-EB2094DC2DD1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E1D07709-8074-4B9D-82DC-A4B9500AC278}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0FA9C5F-17B8-436F-8F22-362C3CC8A456}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2AB0228E-A8F4-4E15-B0BE-60A5D2EABA27}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{452A8176-9F2F-489B-A537-84DD2B8B582B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BAC075F3-F58B-4268-A986-B0E45235FD90}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2DE069CF-D038-4705-A0B8-EB2AA7A448FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8838,7 +8838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D0E491-AF10-40D3-899A-EC3CED183CC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4D57AE-F370-4C31-B4F2-4EA35ED3A657}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10073,18 +10073,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{797F2D5D-09FB-4DD4-AD0E-A63330BA161A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60B08E95-CDFC-4CDE-9C35-7C97EAD9BEF9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3A4B4B35-5B4A-48CD-9EFA-73C505504B17}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E903E51C-3B32-4EF1-A7A4-393455FEF872}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4CCF8391-0D24-45AB-BE7D-5C91A01C07A3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{185A4CB8-8F12-40CF-83D8-F11C5CFF9309}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C23885C6-DF85-45F5-8641-F619B640CC8C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD0F823B-8080-43B6-B214-0311C2D04872}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B9516D5A-6366-4C0F-8A4E-A9E5A7EC1E34}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7841DFC3-4242-42CE-B619-F4BF1E865C9B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B325F66C-4C01-4ED6-9025-EB81EC891D07}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6FFB7AD8-85B2-46F5-A7C9-0718410D6FA7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6423AEE2-8BFE-4ED1-BFBF-029A4169AB0E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A420EC4-656E-452E-9D8D-4265BC31202D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7DAB38DA-CBC6-4BD5-9737-FCCAAFC951D3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D32F2D2E-44CF-4858-AD51-5230B32C48A6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67B09DCF-3BF0-41D0-A010-4EC678629EB6}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6EAC02DA-4C56-4B29-B7E6-A3CABA4F1D33}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{600480E3-3D71-4529-B27F-0A18ABF77497}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7B7DDC8-5556-465E-B2B1-71263BF4BD2B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5942C08F-EB18-4E1B-9120-7FAE61C91501}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E121C2B1-51A4-4766-BC78-F88B785AE004}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1663E25D-DF7D-4C73-AA02-088BC5E733AB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E3613549-C8F1-4195-92D5-3C9F1025597C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10097,7 +10097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6563860-CF25-43DE-B442-31B50CEA7901}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EAD67A-8573-483F-9383-EBDE00A5E759}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11332,18 +11332,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7753CCDB-5025-4007-9859-CD0F36FB5453}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0932A4A6-C38B-48CF-9B83-5C04EEC2C600}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1BFB0FC4-AAC8-4425-A5E6-F545D276BF4D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8AB2647B-F2B2-4399-AE0C-ADB4DAD03C70}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{16D1ECF3-D197-44AB-B5F2-D806B5B6F2E2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EB167AE8-B3D5-4FF7-BF00-081D961C130C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF1EDD02-F4DC-4B52-8B27-903DB65D6B7F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{555B84BE-DDFA-4C32-8721-789EEAA0B5AA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B87E121C-7255-47E0-99F9-DF8BDFDB5358}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E2517862-6700-4976-B1C4-455B39AE7055}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E32E1D8D-2C86-4F08-B8C5-B5EDC4A734D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AFAFB1D2-F41E-42AD-8449-11B49C8282C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7EF31FC-1747-4DB4-9282-38A852F1D638}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{158A7A3C-83A5-4A34-8E8F-F5D641426538}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CB7B9EA2-8CC1-489E-9AF3-ED7378C28722}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4E3B8CED-12A9-494E-9D4E-5AC24BCA5F29}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D5C8CC1-5093-40CB-92BC-DA0FAC97D73D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{913C657B-BE41-4C02-8280-5CA4E1E643AC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{660981D9-1474-40B2-8E56-85FF897C8871}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55B561C0-91A1-4121-930C-504F62C3C7A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2AFE0EB8-1EF2-4A1B-A045-098B35080CE2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{98F810E7-A002-4D0A-94D5-AF85EB36D40F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1FA9ED35-9BFF-4D8F-A6F9-867926E9AB3D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9982C737-EEDD-439A-957F-4A24927B1E67}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11356,7 +11356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED85DD36-5DC1-4D28-9583-6270289CCAC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A7410D-8504-4F78-AD94-F08386314B7A}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -12584,18 +12584,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14639B66-D69E-42F0-8244-3A8DB6C65716}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A42805C9-73B8-48AE-9262-1CA65280F590}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{824F565E-F336-430F-8F8A-20AB91100B31}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1E193BFB-14D2-4CEC-8BC5-4AFAB228FB95}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{045BA9A1-7FB4-4C3B-B5C9-83F6F41A63B6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{879710F8-A592-4850-90AE-17AB905C581D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5C9D095-3324-48F0-8420-2A8EAD3F374D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BBC5A188-586A-4FA2-BFD3-20873968E7F3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4336BE2A-F1EF-4BC5-A5FC-A43338D00980}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C07DEE65-5D16-43A8-8DCC-56A0ACFF23CF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D83D9FB4-3C68-4574-AA83-A4E2E38404E6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C81246C7-8832-456C-B75F-331EE657FE50}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C8A949BD-91A8-4465-A169-E192D0647747}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6DBECDE-1A98-485B-B1A1-EA5D632AC87E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{33512744-5F51-4906-B5EC-0F7438149BB3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{443E8294-325A-4741-B06A-18678A65E692}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7FBDD89-76A8-4226-9D13-B846C8310057}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F0D0C043-FEB9-4A25-975E-C37B10FDBE3E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{724843D9-3248-4CFB-A6B3-B9439A65F7DD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0F340BE-F8C7-4AB2-9FB0-27CF9B049365}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2876DE18-EDAE-47EE-B140-09590CE521FA}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2BE21E3D-59CB-4B29-BAFD-751EF40AA870}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C4AB748-27C7-4D5B-9FD0-BBBFE40FD62C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D2E1BC11-50A6-4FE6-A33B-44516283C348}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12608,7 +12608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96BB79D-1F36-4FAA-A97D-A5ED2F2AA2AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BD736E-D30F-4AEB-9642-3D229D6E1D62}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13834,18 +13834,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BAAC3BAA-AFA3-4A0C-8E6C-44C7C1F53C1F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{45074379-D6E8-4B1D-B888-7E1860CD26B1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B6D58790-63A9-4DEA-BD9C-57FE3FDA3424}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E9E1C2DF-0264-4AF8-8946-ABEDE17F40E6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E58B5647-65DA-4E9A-8248-0E8F42ADD5F0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8E5D756F-73E2-4A44-AA10-98246DA9D6CC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7630E718-4670-47FD-80A2-2F2AFF0F5436}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91901AD2-BE1E-45A7-93FD-F054B2E7594E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65874E2C-ACB4-4C3A-8698-1366FA7D07B9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{26DBBEB0-2A0F-48C8-A632-7F8C25C51CE2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{539B33D8-DCB9-47C6-8158-25FB92989EB7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FA398B74-5B51-49AF-BB56-45351929B71C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFDA60A3-9B3A-41B4-8836-B337265468D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32E15095-48FC-4A47-BABF-3C0A3EE54BF0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CDBB8A75-5A70-4C0E-90B4-0DC8C91DB03F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D0137815-DFE6-4F05-B8CF-DDF4F8D03D90}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE6688AA-19CA-48C9-BFC6-2EDF3802F60C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5C256D51-193E-4037-9EC1-43271E75D4A1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58B0D6D5-9C44-4B8B-B67D-DD62F02DB09B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0AD74BFD-0863-4C12-95E5-D8CEEAD07699}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A5DDD4DC-9E61-4D77-92DE-815D8B1D5E41}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E565D1D4-2C9B-426B-B916-CE1FB79309E1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{64FE05F0-FB3D-4F05-A835-56A752EB6D20}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{26D575F5-AA28-4823-A1D9-BE3B82A51BE2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13858,7 +13858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E044BD8-70D7-4BDD-A9C1-9DB7FD70B121}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82AFAA1-FA06-44F1-AB1D-59C8CA99F71A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15084,18 +15084,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36675ED8-EBF8-4BCA-A612-8C7AD740AF4B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13945ED2-EC1F-4C55-B181-1F87C875769F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{109C9A3F-CD81-4495-A199-FFFC4782FB8B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9ACA5775-4F3B-45FB-953B-62E3EE60D5C1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B4F50B8A-9ECF-417C-9B18-B914614133E4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{89AD8609-40EF-449C-94DD-675995295191}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F0983D0-542F-4AC2-9C5D-B7AE5645D0CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{613B4344-5A1D-4ACE-9981-7F611C573E3E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{47742200-E260-489E-AB4E-FAA4BC9E69AB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EE8D042D-E7A0-4B9F-8A83-3699CF9477B6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E21BFE24-4C50-4D79-83A4-ED02D86D4215}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9084B4D0-EC79-4BC5-A0FB-90A280DB1556}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB8B93D1-DD63-4141-A23D-6350C1561B8F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32BAD12A-D8C4-4F77-A5FD-1A067681173B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8CDBFCA8-9079-4038-8197-D2EB4C7579E3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AEA28B6F-3766-4893-83DA-5DE30BF07C4A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{23A279E5-C18E-4FF9-8D12-646C50C45805}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FD4669AA-A805-4639-A684-0C51BD3F51BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3C02216-0CD3-4710-9FE9-E9CEF4637EDE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8DC89FB-AE6B-414A-99CF-3C62C1A38451}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{98C1956C-F57A-4EE7-822C-1FE72A36D069}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7A174D7E-4A7C-4C8B-8CD9-2BED978CA79B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D331172-0B83-4A7B-85AA-31F54649B9C7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4E7364E5-735A-4856-8401-3433F94F88B2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15108,7 +15108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D231876-DD1E-4DFA-946C-8638A0038A8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CCFD73-48DF-44D5-AC6E-A7297E873965}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16334,18 +16334,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{931C3845-DBC2-45D9-9089-30EE04034FCC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A50C6C5-CAA3-4A10-B317-11C4D36640A8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6824FE31-B81D-42C2-BE80-700CAF481D8B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4B35F4C9-E7F0-40CA-BDE2-35F1ECA4F4E3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6E698A5-AA6B-4B2D-AD9E-D66D21DF0550}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DE5DD5DE-8D28-4D9C-938F-37ECD2D93682}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{98190122-2938-483C-98BB-F6881480B62B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0E49077-FB7C-4292-B2F1-6E5C46AE0F46}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5ECFAA9C-B979-4F17-A5B8-6F1C86A93E2C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E7695C54-C641-4E22-8F13-924967FE7395}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{183F81C9-8BAB-4AF4-BDDA-7B7F4D7C1CB4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E60934E-96EA-43EB-92F9-A42C377E5DFA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96699EEC-A426-4867-A94C-D4DCA051D5BE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88E2A45E-DFF6-4575-831E-7B1197406E37}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0AFDF35A-7929-47E7-BF43-D6DC13B030E4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2D2C1B51-DE14-44B4-8818-95FAF1B70B46}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{682A8219-CCC1-4C7E-B5B8-45B00540791D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C53440B0-BE17-4978-B0F9-19D3F4DB7161}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD8A5924-CE5A-402A-A220-A6F565C31702}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0442D661-4E49-4B2C-8212-97169755E3C5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D919BE16-DB73-40B1-881F-432865F1D44D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{168E7195-B815-4904-99D8-E42B49391A38}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{546DB967-AD15-4F33-969E-092DC4F98BA1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EDF9BCE0-6B8C-4BC2-AE5C-0F31471234A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
